--- a/Resource/excel/K-框架-时间配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/K-框架-时间配置-(框架定义,策划填写).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -34,6 +34,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,6 +59,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -65,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,6 +91,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">PCC:
@@ -96,6 +101,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1 分钟
@@ -114,6 +120,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -132,6 +139,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 天
@@ -150,6 +158,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 周
@@ -168,6 +177,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 月
@@ -190,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>#time</t>
   </si>
@@ -326,6 +336,10 @@
   </si>
   <si>
     <t>每天0点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5分钟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -333,27 +347,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -368,6 +365,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -422,10 +433,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,7 +824,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1105,10 +1116,54 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="A7" s="1">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>300</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H8" s="5"/>
